--- a/1. Project/0. MyApp/앱.xlsx
+++ b/1. Project/0. MyApp/앱.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="RPS" sheetId="1" r:id="rId1"/>
+    <sheet name="RPS Online" sheetId="1" r:id="rId1"/>
     <sheet name="앱개발 요청 앱" sheetId="2" r:id="rId2"/>
     <sheet name="지니어스" sheetId="3" r:id="rId3"/>
     <sheet name="퀴즈! 동물소리" sheetId="4" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>1. 게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,79 @@
   </si>
   <si>
     <t>1. 데스매치 for 더지니어스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3) 수정 금지일때는 텍스트에딧 선택 안되도록 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- AppBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. BLOSSOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. GREY색이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 라시드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 인삼이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSAM_HOUSE
+전적 : 16승 1무 8패  승점 : 33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾기초시계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   -  PVP 메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   -  PVP 대전화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3..2…1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -103,12 +176,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -124,6 +360,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160019</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6560819" y="5097780"/>
+          <a:ext cx="541021" cy="430902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>111901</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>5220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289561</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>212880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4363861" y="5087760"/>
+          <a:ext cx="535800" cy="428640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>290612</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>218655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5433060" y="5085360"/>
+          <a:ext cx="542072" cy="436815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>231000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5379720" y="3649980"/>
+          <a:ext cx="535800" cy="428640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>237272</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5379720" y="4556760"/>
+          <a:ext cx="542072" cy="436815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,68 +874,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B13"/>
+  <dimension ref="B3:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="19" width="4.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="23"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="23"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
+        <v>7777</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <v>7776</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
+        <v>7775</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="13">
+        <v>4353</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="L24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="16"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="19"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B15:I16"/>
+    <mergeCell ref="L15:S16"/>
+    <mergeCell ref="L24:M25"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="R24:S25"/>
+    <mergeCell ref="O19:P20"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -524,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/1. Project/0. MyApp/앱.xlsx
+++ b/1. Project/0. MyApp/앱.xlsx
@@ -17,17 +17,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>1. 게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  1) 광고 시청 후 글 작성 가능하도록 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  2) 댓글 기능 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -137,6 +133,18 @@
   </si>
   <si>
     <t>3..2…1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.06.26 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 구글로그인 후 닉네임 설정 기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2) 댓글 보여지는 기능 추가(관리자만 수동으로 댓글담)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -330,19 +338,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -874,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S27"/>
+  <dimension ref="B3:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -897,50 +905,56 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
         <v>24</v>
-      </c>
-      <c r="L13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -959,8 +973,8 @@
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B15" s="20" t="s">
-        <v>22</v>
+      <c r="B15" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -969,14 +983,14 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="16"/>
-      <c r="L15" s="22"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
-      <c r="S15" s="23"/>
+      <c r="S15" s="22"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B16" s="17"/>
@@ -987,25 +1001,25 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
-      <c r="L16" s="24"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
-      <c r="S16" s="23"/>
+      <c r="S16" s="22"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
@@ -1022,7 +1036,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1044,7 +1058,7 @@
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1057,7 +1071,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="8"/>
@@ -1068,7 +1082,7 @@
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1089,7 +1103,7 @@
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1109,7 +1123,7 @@
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1150,24 +1164,24 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="6"/>
-      <c r="L24" s="14" t="s">
-        <v>26</v>
+      <c r="L24" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="M24" s="15"/>
       <c r="N24" s="5"/>
       <c r="O24" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S24" s="16"/>
     </row>
@@ -1176,7 +1190,7 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -1193,12 +1207,17 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1248,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1269,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
